--- a/Artefatos/product backlog EnVisualiza.xlsx
+++ b/Artefatos/product backlog EnVisualiza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a96f3d0df40ea1b0/Documentos/PROJETOFATEC2024/projetofatecipi2024/Artefatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_C57247EFBF7DF4E3607A8C91C5AE717F233E1765" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99EA1B8-C503-4A23-BC65-1093409144F8}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_C57247EFBF7DF4E3607A8C91C5AE717F233E1765" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A3F89D-9E4C-400A-8C14-BC1919E40292}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -142,16 +142,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,27 +187,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,175 +449,175 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="59.77734375" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="13.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="13.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="39.6">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" ht="29.4" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="1">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="38.4" customHeight="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" ht="34.799999999999997" customHeight="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
